--- a/pkg/Result/loglik_comp.xlsx
+++ b/pkg/Result/loglik_comp.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="915" windowWidth="28440" windowHeight="13980"/>
+    <workbookView xWindow="315" yWindow="-105" windowWidth="28440" windowHeight="13980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="WholeSeq" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>maxll</t>
   </si>
@@ -43,15 +44,46 @@
   <si>
     <t>loglik_opw_all</t>
   </si>
+  <si>
+    <t>edge length</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>mutation rates</t>
+  </si>
+  <si>
+    <t>Grantham weights</t>
+  </si>
+  <si>
+    <t>Maj</t>
+  </si>
+  <si>
+    <t>Opw</t>
+  </si>
+  <si>
+    <t>opw</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1893,11 +1926,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3721,4 +3761,389 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-239736.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>8.9072029999999996E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.11949037999999999</v>
+      </c>
+      <c r="D2">
+        <v>7.2600570000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.19425756999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.25679729000000001</v>
+      </c>
+      <c r="G2">
+        <v>7.5944170000000005E-2</v>
+      </c>
+      <c r="H2">
+        <v>7.1705089999999999E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.27035913</v>
+      </c>
+      <c r="J2">
+        <v>1.8938912800000001</v>
+      </c>
+      <c r="K2">
+        <v>1.4601866800000001</v>
+      </c>
+      <c r="L2">
+        <v>0.7815145</v>
+      </c>
+      <c r="M2">
+        <v>1.5326933</v>
+      </c>
+      <c r="N2">
+        <v>1.62200615</v>
+      </c>
+      <c r="O2">
+        <v>3.31342508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.7699400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>7.9876440000000004</v>
+      </c>
+      <c r="C4">
+        <v>17.861460999999998</v>
+      </c>
+      <c r="D4">
+        <v>5.494853</v>
+      </c>
+      <c r="E4">
+        <v>5.4875410000000002</v>
+      </c>
+      <c r="F4">
+        <v>18.971951000000001</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1.829271654</v>
+      </c>
+      <c r="C5">
+        <v>0.115927294</v>
+      </c>
+      <c r="D5">
+        <v>5.6583200000000005E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-257790.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.20092260000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.2810494</v>
+      </c>
+      <c r="D7">
+        <v>0.28218409999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.3710658</v>
+      </c>
+      <c r="F7">
+        <v>0.46659859999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.29916019999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.3943893</v>
+      </c>
+      <c r="I7">
+        <v>0.26162150000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.35944520000000002</v>
+      </c>
+      <c r="K7">
+        <v>3.6674981</v>
+      </c>
+      <c r="L7">
+        <v>0.75001430000000002</v>
+      </c>
+      <c r="M7">
+        <v>0.71580010000000005</v>
+      </c>
+      <c r="N7">
+        <v>0.98276240000000004</v>
+      </c>
+      <c r="O7">
+        <v>1.3953857999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1.522956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>6.1003970000000001</v>
+      </c>
+      <c r="C9">
+        <v>12.804228</v>
+      </c>
+      <c r="D9">
+        <v>3.815404</v>
+      </c>
+      <c r="E9">
+        <v>4.237978</v>
+      </c>
+      <c r="F9">
+        <v>9.0234159999999992</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1.8292716544000001</v>
+      </c>
+      <c r="C10">
+        <v>0.18168360089999999</v>
+      </c>
+      <c r="D10">
+        <v>6.9448839999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-319625.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2.859037E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.747785E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.2736579999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.9882770000000002E-2</v>
+      </c>
+      <c r="F12">
+        <v>8.1207440000000006E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.9532629999999999E-2</v>
+      </c>
+      <c r="H12">
+        <v>2.9443029999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>7.6313790000000006E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.39991033999999998</v>
+      </c>
+      <c r="K12">
+        <v>0.29173226000000002</v>
+      </c>
+      <c r="L12">
+        <v>0.14150011000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.37782304999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.67028500999999996</v>
+      </c>
+      <c r="O12">
+        <v>0.50702464000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1.613693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2.3447990000000001</v>
+      </c>
+      <c r="C14">
+        <v>4.6895740000000004</v>
+      </c>
+      <c r="D14">
+        <v>1.4925679999999999</v>
+      </c>
+      <c r="E14">
+        <v>1.5559069999999999</v>
+      </c>
+      <c r="F14">
+        <v>1.623264</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1.8292716544000001</v>
+      </c>
+      <c r="C15">
+        <v>0.10400940960000001</v>
+      </c>
+      <c r="D15">
+        <v>3.2731930000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.103060992</v>
+      </c>
+      <c r="C16">
+        <v>0.12839119299999999</v>
+      </c>
+      <c r="D16">
+        <v>8.4753555999999994E-2</v>
+      </c>
+      <c r="E16">
+        <v>5.8870736999999999E-2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3.4413239999999999E-3</v>
+      </c>
+      <c r="H16">
+        <v>7.0437266999999998E-2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3.4521514000000003E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.14672855300000001</v>
+      </c>
+      <c r="M16">
+        <v>7.0399829999999997E-3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.14560948400000001</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0.21714539699999999</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/pkg/Result/loglik_comp.xlsx
+++ b/pkg/Result/loglik_comp.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="-105" windowWidth="28440" windowHeight="13980" activeTab="1"/>
+    <workbookView minimized="1" xWindow="375" yWindow="240" windowWidth="28320" windowHeight="13575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="WholeSeq" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>maxll</t>
   </si>
@@ -68,6 +69,21 @@
   <si>
     <t>opw</t>
   </si>
+  <si>
+    <t>New+maj</t>
+  </si>
+  <si>
+    <t>New+max</t>
+  </si>
+  <si>
+    <t>New+weights</t>
+  </si>
+  <si>
+    <t>LG+I+G+F</t>
+  </si>
+  <si>
+    <t>LG+G+F</t>
+  </si>
 </sst>
 </file>
 
@@ -109,9 +125,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -419,7 +436,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>-2779.1983216957724</v>
       </c>
@@ -446,8 +463,12 @@
       <c r="D2">
         <v>567</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>D2-19</f>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>-2540.3318625586949</v>
       </c>
@@ -460,8 +481,12 @@
       <c r="D3">
         <v>486</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">D3-19</f>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>-1893.0004675139896</v>
       </c>
@@ -474,8 +499,12 @@
       <c r="D4">
         <v>519</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>-1531.2306006330577</v>
       </c>
@@ -488,8 +517,12 @@
       <c r="D5">
         <v>331</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>-1223.6946333752921</v>
       </c>
@@ -502,8 +535,12 @@
       <c r="D6">
         <v>248</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>-2258.061451350517</v>
       </c>
@@ -516,8 +553,12 @@
       <c r="D7">
         <v>294</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>-1018.8542987194523</v>
       </c>
@@ -530,8 +571,12 @@
       <c r="D8">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>-2715.5864684484359</v>
       </c>
@@ -544,8 +589,12 @@
       <c r="D9">
         <v>390</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>-954.28463534338584</v>
       </c>
@@ -558,8 +607,12 @@
       <c r="D10">
         <v>302</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>-1570.9261324932754</v>
       </c>
@@ -572,8 +625,12 @@
       <c r="D11">
         <v>293</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>-4389.5032185040145</v>
       </c>
@@ -586,8 +643,12 @@
       <c r="D12">
         <v>605</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>-2288.228857108681</v>
       </c>
@@ -600,8 +661,12 @@
       <c r="D13">
         <v>529</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>-2907.7521167025507</v>
       </c>
@@ -614,8 +679,12 @@
       <c r="D14">
         <v>733</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>-1294.3983550131259</v>
       </c>
@@ -628,8 +697,12 @@
       <c r="D15">
         <v>374</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>-772.16924066949923</v>
       </c>
@@ -642,8 +715,12 @@
       <c r="D16">
         <v>184</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>-2953.8709714250485</v>
       </c>
@@ -656,8 +733,12 @@
       <c r="D17">
         <v>651</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>-3746.2121829555863</v>
       </c>
@@ -670,8 +751,12 @@
       <c r="D18">
         <v>493</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>-1560.3814858383746</v>
       </c>
@@ -684,8 +769,12 @@
       <c r="D19">
         <v>731</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>-2634.5328878195146</v>
       </c>
@@ -698,8 +787,12 @@
       <c r="D20">
         <v>405</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>-948.27667523731157</v>
       </c>
@@ -712,8 +805,12 @@
       <c r="D21">
         <v>173</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>-2650.2512201296572</v>
       </c>
@@ -726,8 +823,12 @@
       <c r="D22">
         <v>418</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>-4057.8132534988181</v>
       </c>
@@ -740,8 +841,12 @@
       <c r="D23">
         <v>816</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>-1532.7156495752188</v>
       </c>
@@ -754,8 +859,12 @@
       <c r="D24">
         <v>226</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>-1729.1578722276051</v>
       </c>
@@ -768,8 +877,12 @@
       <c r="D25">
         <v>382</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>-622.14591304283203</v>
       </c>
@@ -782,8 +895,12 @@
       <c r="D26">
         <v>206</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>-1905.1971768228609</v>
       </c>
@@ -796,8 +913,12 @@
       <c r="D27">
         <v>297</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>-2246.4776241154109</v>
       </c>
@@ -810,8 +931,12 @@
       <c r="D28">
         <v>454</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>-1462.3182633852246</v>
       </c>
@@ -824,8 +949,12 @@
       <c r="D29">
         <v>237</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>-675.98867607072384</v>
       </c>
@@ -838,8 +967,12 @@
       <c r="D30">
         <v>143</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>-3993.4433676423509</v>
       </c>
@@ -852,8 +985,12 @@
       <c r="D31">
         <v>606</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>-1323.240263748447</v>
       </c>
@@ -866,8 +1003,12 @@
       <c r="D32">
         <v>270</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>-2437.9531378246988</v>
       </c>
@@ -880,8 +1021,12 @@
       <c r="D33">
         <v>372</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>-691.74884736072659</v>
       </c>
@@ -894,8 +1039,12 @@
       <c r="D34">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>-530.45029051076995</v>
       </c>
@@ -908,8 +1057,12 @@
       <c r="D35">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>-1253.8759782768898</v>
       </c>
@@ -922,8 +1075,12 @@
       <c r="D36">
         <v>184</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>-2065.191361917955</v>
       </c>
@@ -936,8 +1093,12 @@
       <c r="D37">
         <v>270</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>-2215.5829518243413</v>
       </c>
@@ -950,8 +1111,12 @@
       <c r="D38">
         <v>478</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>-2111.7357186525783</v>
       </c>
@@ -964,8 +1129,12 @@
       <c r="D39">
         <v>423</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>-1573.2139165619703</v>
       </c>
@@ -978,8 +1147,12 @@
       <c r="D40">
         <v>342</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>-1128.7070140402207</v>
       </c>
@@ -992,8 +1165,12 @@
       <c r="D41">
         <v>252</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>-2880.6867608034918</v>
       </c>
@@ -1006,8 +1183,12 @@
       <c r="D42">
         <v>538</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>-929.67924378812438</v>
       </c>
@@ -1020,8 +1201,12 @@
       <c r="D43">
         <v>271</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>-1574.8281722063468</v>
       </c>
@@ -1034,8 +1219,12 @@
       <c r="D44">
         <v>342</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>-1064.5514216174963</v>
       </c>
@@ -1048,8 +1237,12 @@
       <c r="D45">
         <v>247</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>-4139.8767587650536</v>
       </c>
@@ -1062,8 +1255,12 @@
       <c r="D46">
         <v>998</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>979</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>-1932.8394400752145</v>
       </c>
@@ -1076,8 +1273,12 @@
       <c r="D47">
         <v>344</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>-2000.9511247835819</v>
       </c>
@@ -1090,8 +1291,12 @@
       <c r="D48">
         <v>412</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>-2140.2219744746581</v>
       </c>
@@ -1104,8 +1309,12 @@
       <c r="D49">
         <v>332</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>-1928.3044023206014</v>
       </c>
@@ -1118,8 +1327,12 @@
       <c r="D50">
         <v>424</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>-2695.4884233129137</v>
       </c>
@@ -1132,8 +1345,12 @@
       <c r="D51">
         <v>352</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>-3849.1971836574558</v>
       </c>
@@ -1146,8 +1363,12 @@
       <c r="D52">
         <v>630</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>-2016.8532708457594</v>
       </c>
@@ -1160,8 +1381,12 @@
       <c r="D53">
         <v>354</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>-729.48561530404129</v>
       </c>
@@ -1174,8 +1399,12 @@
       <c r="D54">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>-2203.1001945170315</v>
       </c>
@@ -1188,8 +1417,12 @@
       <c r="D55">
         <v>409</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>-1399.7050814829818</v>
       </c>
@@ -1202,8 +1435,12 @@
       <c r="D56">
         <v>330</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>-2445.3658436523092</v>
       </c>
@@ -1216,8 +1453,12 @@
       <c r="D57">
         <v>482</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>-3433.6151089938244</v>
       </c>
@@ -1230,8 +1471,12 @@
       <c r="D58">
         <v>535</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>-2465.6853473413244</v>
       </c>
@@ -1244,8 +1489,12 @@
       <c r="D59">
         <v>429</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>-4882.7096339952732</v>
       </c>
@@ -1258,8 +1507,12 @@
       <c r="D60">
         <v>672</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>-1296.960186319676</v>
       </c>
@@ -1272,8 +1525,12 @@
       <c r="D61">
         <v>218</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>-1047.8861514692112</v>
       </c>
@@ -1286,8 +1543,12 @@
       <c r="D62">
         <v>245</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>-1683.9253921179559</v>
       </c>
@@ -1300,8 +1561,12 @@
       <c r="D63">
         <v>471</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>-1827.8200249176318</v>
       </c>
@@ -1314,8 +1579,12 @@
       <c r="D64">
         <v>686</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>-2056.9936933957902</v>
       </c>
@@ -1328,8 +1597,12 @@
       <c r="D65">
         <v>345</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>-2109.9247909294504</v>
       </c>
@@ -1342,8 +1615,12 @@
       <c r="D66">
         <v>532</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>-1300.3695054472653</v>
       </c>
@@ -1356,8 +1633,12 @@
       <c r="D67">
         <v>165</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <f t="shared" ref="E67:E107" si="1">D67-19</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>-3151.7924207026072</v>
       </c>
@@ -1370,8 +1651,12 @@
       <c r="D68">
         <v>538</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>-1117.7020884028575</v>
       </c>
@@ -1384,8 +1669,12 @@
       <c r="D69">
         <v>206</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>-4453.4572684180775</v>
       </c>
@@ -1398,8 +1687,12 @@
       <c r="D70">
         <v>818</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>-2243.4300740317321</v>
       </c>
@@ -1412,8 +1705,12 @@
       <c r="D71">
         <v>360</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>-2728.5388016892498</v>
       </c>
@@ -1426,8 +1723,12 @@
       <c r="D72">
         <v>362</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>-1184.6535942703581</v>
       </c>
@@ -1440,8 +1741,12 @@
       <c r="D73">
         <v>309</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>-3975.6902042909446</v>
       </c>
@@ -1454,8 +1759,12 @@
       <c r="D74">
         <v>596</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>-1821.7008923846074</v>
       </c>
@@ -1468,8 +1777,12 @@
       <c r="D75">
         <v>300</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>-2107.6692862832269</v>
       </c>
@@ -1482,8 +1795,12 @@
       <c r="D76">
         <v>252</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>-1796.8717625474653</v>
       </c>
@@ -1496,8 +1813,12 @@
       <c r="D77">
         <v>342</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>-3307.7345348837475</v>
       </c>
@@ -1510,8 +1831,12 @@
       <c r="D78">
         <v>525</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>-1304.7408664787436</v>
       </c>
@@ -1524,8 +1849,12 @@
       <c r="D79">
         <v>295</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>-3692.1854293752758</v>
       </c>
@@ -1538,8 +1867,12 @@
       <c r="D80">
         <v>514</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>-3018.5459742314911</v>
       </c>
@@ -1552,8 +1885,12 @@
       <c r="D81">
         <v>665</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>-1508.9766095124201</v>
       </c>
@@ -1566,8 +1903,12 @@
       <c r="D82">
         <v>260</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>-3238.2098530612111</v>
       </c>
@@ -1580,8 +1921,12 @@
       <c r="D83">
         <v>538</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>-3403.9388862455276</v>
       </c>
@@ -1594,8 +1939,12 @@
       <c r="D84">
         <v>417</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>-2642.6366831704581</v>
       </c>
@@ -1608,8 +1957,12 @@
       <c r="D85">
         <v>590</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>-2131.8536359893546</v>
       </c>
@@ -1622,8 +1975,12 @@
       <c r="D86">
         <v>337</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>-1650.2567341495785</v>
       </c>
@@ -1636,8 +1993,12 @@
       <c r="D87">
         <v>376</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>-1945.9361932350821</v>
       </c>
@@ -1650,8 +2011,12 @@
       <c r="D88">
         <v>327</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>-1706.2025448122631</v>
       </c>
@@ -1664,8 +2029,12 @@
       <c r="D89">
         <v>331</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>-3572.1993371345707</v>
       </c>
@@ -1678,8 +2047,12 @@
       <c r="D90">
         <v>942</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>-2444.1009497824102</v>
       </c>
@@ -1692,8 +2065,12 @@
       <c r="D91">
         <v>377</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>-3115.056515574513</v>
       </c>
@@ -1706,8 +2083,12 @@
       <c r="D92">
         <v>435</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>-1284.5637860620959</v>
       </c>
@@ -1720,8 +2101,12 @@
       <c r="D93">
         <v>298</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>-1432.9673608832704</v>
       </c>
@@ -1734,8 +2119,12 @@
       <c r="D94">
         <v>354</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>-2194.7461232800629</v>
       </c>
@@ -1748,8 +2137,12 @@
       <c r="D95">
         <v>284</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>-1255.9768511003476</v>
       </c>
@@ -1762,8 +2155,12 @@
       <c r="D96">
         <v>277</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>-1378.0268879729631</v>
       </c>
@@ -1776,8 +2173,12 @@
       <c r="D97">
         <v>217</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>-1067.8997447622614</v>
       </c>
@@ -1790,8 +2191,12 @@
       <c r="D98">
         <v>211</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>-2271.1790789396232</v>
       </c>
@@ -1804,8 +2209,12 @@
       <c r="D99">
         <v>303</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>-1905.4458150066632</v>
       </c>
@@ -1818,8 +2227,12 @@
       <c r="D100">
         <v>257</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>-1269.4396737098386</v>
       </c>
@@ -1832,8 +2245,12 @@
       <c r="D101">
         <v>286</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>-2605.8912950994645</v>
       </c>
@@ -1846,8 +2263,12 @@
       <c r="D102">
         <v>464</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>-2100.5449849926649</v>
       </c>
@@ -1860,8 +2281,12 @@
       <c r="D103">
         <v>276</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>-3884.5233639086878</v>
       </c>
@@ -1874,8 +2299,12 @@
       <c r="D104">
         <v>747</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>-1447.9661797941528</v>
       </c>
@@ -1888,8 +2317,12 @@
       <c r="D105">
         <v>419</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>-3188.3977164414473</v>
       </c>
@@ -1902,8 +2335,12 @@
       <c r="D106">
         <v>530</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>-2235.3235934494073</v>
       </c>
@@ -1915,6 +2352,32 @@
       </c>
       <c r="D107">
         <v>392</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <f>SUM(A2:A107)</f>
+        <v>-227011.70170323001</v>
+      </c>
+      <c r="B108">
+        <f>SUM(B2:B107)</f>
+        <v>-311720.3217353737</v>
+      </c>
+      <c r="C108">
+        <f>SUM(C2:C107)</f>
+        <v>84708.62003214359</v>
+      </c>
+      <c r="D108">
+        <f t="shared" ref="D108:E108" si="2">SUM(D2:D107)</f>
+        <v>42342</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="2"/>
+        <v>40328</v>
       </c>
     </row>
   </sheetData>
@@ -1926,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3768,13 +4231,13 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -3831,6 +4294,10 @@
       <c r="O2">
         <v>3.31342508</v>
       </c>
+      <c r="Q2">
+        <f>SUM(B2:O2)</f>
+        <v>11.75394322</v>
+      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
@@ -3931,6 +4398,10 @@
       <c r="O7">
         <v>1.3953857999999999</v>
       </c>
+      <c r="Q7">
+        <f>SUM(B7:O7)</f>
+        <v>10.427897400000001</v>
+      </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
@@ -4030,6 +4501,10 @@
       </c>
       <c r="O12">
         <v>0.50702464000000003</v>
+      </c>
+      <c r="Q12">
+        <f>SUM(B12:O12)</f>
+        <v>2.7434598699999997</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -4146,4 +4621,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>-257790.1</v>
+      </c>
+      <c r="D1">
+        <v>10.43</v>
+      </c>
+      <c r="E1">
+        <v>41</v>
+      </c>
+      <c r="G1">
+        <f>2*E1-2*C1</f>
+        <v>515662.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <f>G2-G1</f>
+        <v>48576.600000000035</v>
+      </c>
+      <c r="C2">
+        <v>-239736.4</v>
+      </c>
+      <c r="D2">
+        <v>11.75</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42383</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G6" si="0">2*E2-2*C2</f>
+        <v>564238.80000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <f>G3-G1</f>
+        <v>123709.39999999997</v>
+      </c>
+      <c r="C3">
+        <v>-319625.8</v>
+      </c>
+      <c r="D3">
+        <v>2.74</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>639371.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f>G4-G1</f>
+        <v>81803.98000000004</v>
+      </c>
+      <c r="C4">
+        <v>-298699.09000000003</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>597466.18000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <f>G5-G1</f>
+        <v>81801.98000000004</v>
+      </c>
+      <c r="C5">
+        <v>-298699.09000000003</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>597464.18000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6">
+        <f>G6-G1</f>
+        <v>187447.8</v>
+      </c>
+      <c r="C6">
+        <v>-311186</v>
+      </c>
+      <c r="E6" s="2">
+        <v>40369</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>703110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pkg/Result/loglik_comp.xlsx
+++ b/pkg/Result/loglik_comp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="375" yWindow="240" windowWidth="28320" windowHeight="13575" activeTab="3"/>
+    <workbookView xWindow="960" yWindow="960" windowWidth="24640" windowHeight="13560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,17 @@
     <sheet name="WholeSeq" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>maxll</t>
   </si>
@@ -84,12 +89,15 @@
   <si>
     <t>LG+G+F</t>
   </si>
+  <si>
+    <t>New+weights(diff for genes)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -422,16 +430,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
@@ -2382,24 +2390,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4223,21 +4236,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -4619,23 +4637,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4742,6 +4764,9 @@
       </c>
     </row>
     <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
       <c r="B6">
         <f>G6-G1</f>
         <v>187447.8</v>
@@ -4759,5 +4784,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>